--- a/Sales.xlsx
+++ b/Sales.xlsx
@@ -341,92 +341,6 @@
         <v>Paid</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>2025-03-04</v>
-      </c>
-      <c r="B2">
-        <v>600</v>
-      </c>
-      <c r="C2" t="str"/>
-      <c r="D2" t="str"/>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2025-03-04</v>
-      </c>
-      <c r="B3">
-        <v>4455</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Shawket</v>
-      </c>
-      <c r="D3" t="str"/>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2025-03-04</v>
-      </c>
-      <c r="B4">
-        <v>600</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Dr Mohamed</v>
-      </c>
-      <c r="D4" t="str"/>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>2025-03-04</v>
-      </c>
-      <c r="B5">
-        <v>3300</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Dr Mohamed</v>
-      </c>
-      <c r="D5" t="str"/>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>2025-03-06</v>
-      </c>
-      <c r="B6">
-        <v>600</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Shawket</v>
-      </c>
-      <c r="D6" t="str"/>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>2025-03-06</v>
-      </c>
-      <c r="B7">
-        <v>600</v>
-      </c>
-      <c r="C7" t="str"/>
-      <c r="D7" t="str"/>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>